--- a/data_year/zb/科技/中国科协系统科技活动情况/中国科协系统科技活动和社会服务.xlsx
+++ b/data_year/zb/科技/中国科协系统科技活动情况/中国科协系统科技活动和社会服务.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,400 +613,200 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75774</v>
+        <v>57234</v>
       </c>
       <c r="C2" t="n">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="D2" t="n">
-        <v>31519</v>
+        <v>38419</v>
       </c>
       <c r="E2" t="n">
-        <v>1054</v>
+        <v>702</v>
       </c>
       <c r="F2" t="n">
-        <v>34467</v>
+        <v>26530</v>
       </c>
       <c r="G2" t="n">
-        <v>15934</v>
+        <v>23772</v>
       </c>
       <c r="H2" t="n">
-        <v>40349</v>
+        <v>90273</v>
       </c>
       <c r="I2" t="n">
-        <v>1939</v>
+        <v>1913</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>668</v>
+        <v>1290</v>
       </c>
       <c r="L2" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M2" t="n">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>12480</v>
+        <v>12001</v>
       </c>
       <c r="P2" t="n">
-        <v>14247</v>
+        <v>14900</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>5924</v>
+        <v>11710</v>
       </c>
       <c r="S2" t="n">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="T2" t="n">
-        <v>5524</v>
+        <v>5647</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>34479</v>
+        <v>32642</v>
       </c>
       <c r="W2" t="n">
-        <v>12308</v>
+        <v>12987</v>
       </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>5256</v>
+        <v>10420</v>
       </c>
       <c r="Z2" t="n">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="AA2" t="n">
-        <v>5213</v>
+        <v>5411</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>21999</v>
+        <v>20641</v>
       </c>
       <c r="AD2" t="n">
-        <v>61527</v>
+        <v>42334</v>
       </c>
       <c r="AE2" t="n">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="AF2" t="n">
-        <v>25595</v>
+        <v>26709</v>
       </c>
       <c r="AG2" t="n">
-        <v>856</v>
+        <v>514</v>
       </c>
       <c r="AH2" t="n">
-        <v>28943</v>
+        <v>20883</v>
       </c>
       <c r="AI2" t="n">
-        <v>15934</v>
+        <v>23772</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5870</v>
+        <v>57631</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57690</v>
+        <v>60422</v>
       </c>
       <c r="C3" t="n">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="D3" t="n">
-        <v>33655</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
-        <v>732</v>
+        <v>680</v>
       </c>
       <c r="F3" t="n">
-        <v>29828</v>
+        <v>23069</v>
       </c>
       <c r="G3" t="n">
-        <v>18099</v>
+        <v>26965</v>
       </c>
       <c r="H3" t="n">
-        <v>90744</v>
+        <v>117409</v>
       </c>
       <c r="I3" t="n">
-        <v>1829</v>
+        <v>1920</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>697</v>
+        <v>479</v>
       </c>
       <c r="L3" t="n">
-        <v>21.3</v>
+        <v>34.1</v>
       </c>
       <c r="M3" t="n">
-        <v>512</v>
+        <v>255</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>18129</v>
+        <v>20320</v>
       </c>
       <c r="P3" t="n">
-        <v>11672</v>
+        <v>17930</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>7180</v>
+        <v>14152</v>
       </c>
       <c r="S3" t="n">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="T3" t="n">
-        <v>4889</v>
+        <v>6635</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>40109</v>
+        <v>45838</v>
       </c>
       <c r="W3" t="n">
-        <v>9843</v>
+        <v>16010</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>6483</v>
+        <v>13673</v>
       </c>
       <c r="Z3" t="n">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="AA3" t="n">
-        <v>4377</v>
+        <v>6380</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>21980</v>
+        <v>25518</v>
       </c>
       <c r="AD3" t="n">
-        <v>46018</v>
+        <v>42492</v>
       </c>
       <c r="AE3" t="n">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="AF3" t="n">
-        <v>26475</v>
+        <v>30101</v>
       </c>
       <c r="AG3" t="n">
-        <v>597</v>
+        <v>484</v>
       </c>
       <c r="AH3" t="n">
-        <v>24939</v>
+        <v>16434</v>
       </c>
       <c r="AI3" t="n">
-        <v>18099</v>
+        <v>26965</v>
       </c>
       <c r="AJ3" t="n">
-        <v>50635</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>57234</v>
-      </c>
-      <c r="C4" t="n">
-        <v>195</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38419</v>
-      </c>
-      <c r="E4" t="n">
-        <v>702</v>
-      </c>
-      <c r="F4" t="n">
-        <v>26530</v>
-      </c>
-      <c r="G4" t="n">
-        <v>23772</v>
-      </c>
-      <c r="H4" t="n">
-        <v>90273</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1913</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>1290</v>
-      </c>
-      <c r="L4" t="n">
-        <v>37</v>
-      </c>
-      <c r="M4" t="n">
-        <v>236</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>12001</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14900</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>11710</v>
-      </c>
-      <c r="S4" t="n">
-        <v>188</v>
-      </c>
-      <c r="T4" t="n">
-        <v>5647</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
-        <v>32642</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12987</v>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>10420</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>5411</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="n">
-        <v>20641</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>42334</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>195</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>26709</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>514</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>20883</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>23772</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>57631</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>60422</v>
-      </c>
-      <c r="C5" t="n">
-        <v>204</v>
-      </c>
-      <c r="D5" t="n">
-        <v>44253</v>
-      </c>
-      <c r="E5" t="n">
-        <v>680</v>
-      </c>
-      <c r="F5" t="n">
-        <v>23069</v>
-      </c>
-      <c r="G5" t="n">
-        <v>26965</v>
-      </c>
-      <c r="H5" t="n">
-        <v>117409</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1920</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>255</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>20320</v>
-      </c>
-      <c r="P5" t="n">
-        <v>17930</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>14152</v>
-      </c>
-      <c r="S5" t="n">
-        <v>196</v>
-      </c>
-      <c r="T5" t="n">
-        <v>6635</v>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
-        <v>45838</v>
-      </c>
-      <c r="W5" t="n">
-        <v>16010</v>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
-        <v>13673</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>162</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>6380</v>
-      </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="n">
-        <v>25518</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>42492</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>204</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>30101</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>484</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>16434</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>26965</v>
-      </c>
-      <c r="AJ5" t="n">
         <v>71571</v>
       </c>
     </row>
